--- a/RPA/TestLogin/ErrorMessages.xlsx
+++ b/RPA/TestLogin/ErrorMessages.xlsx
@@ -432,7 +432,7 @@
       <x:selection activeCell="D9" sqref="D9"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="19.737411" defaultRowHeight="15.75" customHeight="1"/>
+  <x:sheetFormatPr defaultColWidth="20.448036" defaultRowHeight="15.75" customHeight="1"/>
   <x:sheetData>
     <x:row r="1" spans="1:4" customFormat="1" ht="15.75" customHeight="1">
       <x:c r="A1" s="0" t="s">
